--- a/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/ხარაგაული.xlsx
+++ b/municipal/განათლება/ზოგადსაგანმანათლებლო დაწესებულებები/იმერეთი/ხარაგაული.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სკოლები\ზოგადსაგანმანათლებლო დაწესებულებები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865743DE-3753-453A-9E35-67913B2225BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8257505C-76A8-4DF5-BAF2-837F3DAB7741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="750" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ხარაგაული" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>საჯარო და კერძო ზოგადსაგანმანათლებლო დაწესებულებები ხარაგაულის მუნიციპალიტეტში</t>
   </si>
@@ -110,7 +110,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>წყარო:</t>
     </r>
@@ -119,11 +119,17 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> საქართველოს განათლებისა და მეცნიერების სამინისტრო.
 </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> დაწყებითი საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
+  </si>
+  <si>
+    <t>საბაზო საფეხურის კურსდამთავრებულთა რიცხოვნობა</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,49 +152,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -196,10 +202,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
-      <charset val="134"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +224,24 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14996795556505021"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -254,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,40 +308,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -322,7 +348,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -330,7 +364,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,11 +657,11 @@
     <col min="1" max="1" width="36.7109375" style="3" customWidth="1"/>
     <col min="2" max="13" width="10.7109375" style="4" customWidth="1"/>
     <col min="14" max="15" width="10.7109375" style="5" customWidth="1"/>
-    <col min="16" max="18" width="12" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="16" max="26" width="6.7109375" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="51" customHeight="1">
+    <row r="1" spans="1:27" ht="51" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -636,7 +678,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -652,13 +694,10 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>2</v>
@@ -687,23 +726,23 @@
       <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1">
+    <row r="4" spans="1:27" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -743,14 +782,14 @@
       <c r="M4" s="12">
         <v>26</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="28">
         <v>26</v>
       </c>
       <c r="O4" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="21" customHeight="1">
+    <row r="5" spans="1:27" ht="21" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -793,367 +832,673 @@
       <c r="N5" s="14">
         <v>2125</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="14">
         <v>2068</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30">
+    <row r="6" spans="1:27" ht="30">
       <c r="A6" s="15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="17">
-        <v>229</v>
-      </c>
-      <c r="D6" s="17">
-        <v>209</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="C6" s="28">
+        <v>242</v>
+      </c>
+      <c r="D6" s="31">
+        <v>187</v>
+      </c>
+      <c r="E6" s="32">
+        <v>205</v>
+      </c>
+      <c r="F6" s="32">
+        <v>172</v>
+      </c>
+      <c r="G6" s="31">
+        <v>220</v>
+      </c>
+      <c r="H6" s="28">
+        <v>194</v>
+      </c>
+      <c r="I6" s="28">
+        <v>167</v>
+      </c>
+      <c r="J6" s="32">
+        <v>148</v>
+      </c>
+      <c r="K6" s="32">
+        <v>145</v>
+      </c>
+      <c r="L6" s="31">
+        <v>165</v>
+      </c>
+      <c r="M6" s="31">
         <v>203</v>
       </c>
-      <c r="F6" s="17">
-        <v>205</v>
-      </c>
-      <c r="G6" s="17">
-        <v>215</v>
-      </c>
-      <c r="H6" s="17">
-        <v>186</v>
-      </c>
-      <c r="I6" s="17">
-        <v>190</v>
-      </c>
-      <c r="J6" s="17">
-        <v>176</v>
-      </c>
-      <c r="K6" s="17">
-        <v>180</v>
-      </c>
-      <c r="L6" s="17">
-        <v>138</v>
-      </c>
-      <c r="M6" s="17">
-        <v>203</v>
-      </c>
-      <c r="N6" s="17">
-        <v>190</v>
+      <c r="N6" s="14">
+        <f>N7+N8</f>
+        <v>185</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14">
-        <v>96</v>
-      </c>
-      <c r="D7" s="14">
-        <v>87</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="28">
         <v>109</v>
       </c>
-      <c r="F7" s="14">
-        <v>103</v>
-      </c>
-      <c r="G7" s="14">
-        <v>103</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="D7" s="28">
+        <v>89</v>
+      </c>
+      <c r="E7" s="28">
+        <v>91</v>
+      </c>
+      <c r="F7" s="28">
+        <v>90</v>
+      </c>
+      <c r="G7" s="28">
+        <v>97</v>
+      </c>
+      <c r="H7" s="28">
         <v>98</v>
       </c>
-      <c r="I7" s="14">
-        <v>81</v>
-      </c>
-      <c r="J7" s="14">
-        <v>87</v>
-      </c>
-      <c r="K7" s="14">
-        <v>81</v>
-      </c>
-      <c r="L7" s="14">
-        <v>69</v>
-      </c>
-      <c r="M7" s="14">
-        <v>90</v>
+      <c r="I7" s="28">
+        <v>78</v>
+      </c>
+      <c r="J7" s="28">
+        <v>65</v>
+      </c>
+      <c r="K7" s="28">
+        <v>64</v>
+      </c>
+      <c r="L7" s="28">
+        <v>68</v>
+      </c>
+      <c r="M7" s="28">
+        <v>93</v>
       </c>
       <c r="N7" s="14">
-        <v>92</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="28">
         <v>133</v>
       </c>
-      <c r="D8" s="14">
-        <v>122</v>
-      </c>
-      <c r="E8" s="14">
-        <v>94</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="28">
+        <v>98</v>
+      </c>
+      <c r="E8" s="28">
+        <v>114</v>
+      </c>
+      <c r="F8" s="28">
+        <v>82</v>
+      </c>
+      <c r="G8" s="28">
+        <v>123</v>
+      </c>
+      <c r="H8" s="28">
+        <v>96</v>
+      </c>
+      <c r="I8" s="28">
+        <v>89</v>
+      </c>
+      <c r="J8" s="28">
+        <v>83</v>
+      </c>
+      <c r="K8" s="28">
+        <v>81</v>
+      </c>
+      <c r="L8" s="28">
+        <v>97</v>
+      </c>
+      <c r="M8" s="28">
+        <v>110</v>
+      </c>
+      <c r="N8" s="14">
+        <v>103</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="AA8" s="24"/>
+    </row>
+    <row r="9" spans="1:27" ht="30">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="28">
+        <v>275</v>
+      </c>
+      <c r="D9" s="31">
+        <v>245</v>
+      </c>
+      <c r="E9" s="32">
+        <v>224</v>
+      </c>
+      <c r="F9" s="28">
+        <v>234</v>
+      </c>
+      <c r="G9" s="32">
+        <v>205</v>
+      </c>
+      <c r="H9" s="28">
+        <v>206</v>
+      </c>
+      <c r="I9" s="28">
+        <v>158</v>
+      </c>
+      <c r="J9" s="31">
+        <v>220</v>
+      </c>
+      <c r="K9" s="32">
+        <v>179</v>
+      </c>
+      <c r="L9" s="31">
+        <v>167</v>
+      </c>
+      <c r="M9" s="31">
+        <v>146</v>
+      </c>
+      <c r="N9" s="14">
+        <f>N10+N11</f>
+        <v>143</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="24"/>
+      <c r="AA9" s="24"/>
+    </row>
+    <row r="10" spans="1:27" ht="21" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="28">
+        <v>135</v>
+      </c>
+      <c r="D10" s="28">
+        <v>113</v>
+      </c>
+      <c r="E10" s="28">
+        <v>112</v>
+      </c>
+      <c r="F10" s="28">
+        <v>105</v>
+      </c>
+      <c r="G10" s="28">
+        <v>96</v>
+      </c>
+      <c r="H10" s="28">
+        <v>91</v>
+      </c>
+      <c r="I10" s="28">
+        <v>79</v>
+      </c>
+      <c r="J10" s="28">
+        <v>99</v>
+      </c>
+      <c r="K10" s="28">
+        <v>90</v>
+      </c>
+      <c r="L10" s="28">
+        <v>78</v>
+      </c>
+      <c r="M10" s="28">
+        <v>64</v>
+      </c>
+      <c r="N10" s="14">
+        <v>63</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="27"/>
+    </row>
+    <row r="11" spans="1:27" ht="21" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="28">
+        <v>140</v>
+      </c>
+      <c r="D11" s="28">
+        <v>132</v>
+      </c>
+      <c r="E11" s="28">
+        <v>112</v>
+      </c>
+      <c r="F11" s="28">
+        <v>129</v>
+      </c>
+      <c r="G11" s="28">
+        <v>109</v>
+      </c>
+      <c r="H11" s="28">
+        <v>115</v>
+      </c>
+      <c r="I11" s="28">
+        <v>79</v>
+      </c>
+      <c r="J11" s="28">
+        <v>121</v>
+      </c>
+      <c r="K11" s="28">
+        <v>89</v>
+      </c>
+      <c r="L11" s="28">
+        <v>89</v>
+      </c>
+      <c r="M11" s="28">
+        <v>82</v>
+      </c>
+      <c r="N11" s="14">
+        <v>80</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:27" ht="30">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="28">
+        <v>233</v>
+      </c>
+      <c r="D12" s="31">
+        <v>250</v>
+      </c>
+      <c r="E12" s="32">
+        <v>202</v>
+      </c>
+      <c r="F12" s="32">
+        <v>203</v>
+      </c>
+      <c r="G12" s="31">
+        <v>215</v>
+      </c>
+      <c r="H12" s="28">
+        <v>185</v>
+      </c>
+      <c r="I12" s="28">
+        <v>190</v>
+      </c>
+      <c r="J12" s="32">
+        <v>176</v>
+      </c>
+      <c r="K12" s="32">
+        <v>180</v>
+      </c>
+      <c r="L12" s="31">
+        <v>138</v>
+      </c>
+      <c r="M12" s="31">
+        <v>203</v>
+      </c>
+      <c r="N12" s="14">
+        <v>190</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:27" ht="21" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="28">
+        <v>96</v>
+      </c>
+      <c r="D13" s="28">
+        <v>107</v>
+      </c>
+      <c r="E13" s="28">
+        <v>107</v>
+      </c>
+      <c r="F13" s="28">
         <v>102</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G13" s="28">
+        <v>103</v>
+      </c>
+      <c r="H13" s="28">
+        <v>97</v>
+      </c>
+      <c r="I13" s="28">
+        <v>81</v>
+      </c>
+      <c r="J13" s="28">
+        <v>87</v>
+      </c>
+      <c r="K13" s="28">
+        <v>81</v>
+      </c>
+      <c r="L13" s="28">
+        <v>69</v>
+      </c>
+      <c r="M13" s="28">
+        <v>90</v>
+      </c>
+      <c r="N13" s="14">
+        <v>92</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:27" ht="21" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="28">
+        <v>137</v>
+      </c>
+      <c r="D14" s="28">
+        <v>143</v>
+      </c>
+      <c r="E14" s="28">
+        <v>95</v>
+      </c>
+      <c r="F14" s="28">
+        <v>101</v>
+      </c>
+      <c r="G14" s="28">
         <v>112</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H14" s="28">
         <v>88</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I14" s="28">
         <v>109</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J14" s="28">
         <v>89</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K14" s="28">
         <v>99</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L14" s="28">
         <v>69</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M14" s="28">
         <v>113</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N14" s="14">
         <v>98</v>
       </c>
-      <c r="O8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="O14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:27" ht="27.75" customHeight="1">
+      <c r="A15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="29">
-        <v>11.0308285163776</v>
-      </c>
-      <c r="D9" s="29">
-        <v>10.2435916286821</v>
-      </c>
-      <c r="E9" s="29">
-        <v>10.1166151699392</v>
-      </c>
-      <c r="F9" s="29">
-        <v>10.356673739516999</v>
-      </c>
-      <c r="G9" s="29">
-        <v>10.968548325383299</v>
-      </c>
-      <c r="H9" s="29">
-        <v>9.5548763259959397</v>
-      </c>
-      <c r="I9" s="29">
-        <v>9.8325872642119698</v>
-      </c>
-      <c r="J9" s="29">
-        <v>9.1826885451177809</v>
-      </c>
-      <c r="K9" s="29">
-        <v>9.4749309119620992</v>
-      </c>
-      <c r="L9" s="29">
-        <v>7.3376934120274404</v>
-      </c>
-      <c r="M9" s="29">
-        <v>10.8882214117142</v>
-      </c>
-      <c r="N9" s="29">
-        <v>10.4246680566224</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="B15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33">
+        <v>11.419889231975688</v>
+      </c>
+      <c r="D15" s="33">
+        <v>12.458885677265027</v>
+      </c>
+      <c r="E15" s="33">
+        <v>10.205112660402142</v>
+      </c>
+      <c r="F15" s="33">
+        <v>10.356350279315356</v>
+      </c>
+      <c r="G15" s="33">
+        <v>11.04461510800606</v>
+      </c>
+      <c r="H15" s="33">
+        <v>9.5738349677853378</v>
+      </c>
+      <c r="I15" s="33">
+        <v>9.9131296793885149</v>
+      </c>
+      <c r="J15" s="33">
+        <v>9.2643768916962745</v>
+      </c>
+      <c r="K15" s="33">
+        <v>9.570904450470568</v>
+      </c>
+      <c r="L15" s="33">
+        <v>7.4018450976185362</v>
+      </c>
+      <c r="M15" s="33">
+        <v>11.015546571885936</v>
+      </c>
+      <c r="N15" s="33">
+        <v>10.424668056622407</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="21" customHeight="1">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="14">
+      <c r="B16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="14">
         <v>585</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I16" s="14">
         <v>575</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J16" s="14">
         <v>562</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K16" s="14">
         <v>519</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L16" s="14">
         <v>517</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M16" s="14">
         <v>516</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N16" s="14">
         <v>524</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O16" s="16">
         <v>528</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="13" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="14">
         <v>494</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I17" s="14">
         <v>486</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J17" s="14">
         <v>469</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K17" s="14">
         <v>437</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L17" s="14">
         <v>438</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M17" s="14">
         <v>435</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N17" s="14">
         <v>445</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O17" s="16">
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="20" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="20">
         <v>91</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I18" s="20">
         <v>89</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J18" s="20">
         <v>93</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K18" s="20">
         <v>82</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L18" s="20">
         <v>79</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M18" s="20">
         <v>81</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N18" s="20">
         <v>79</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O18" s="19">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="27" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-    </row>
-    <row r="14" spans="1:18" s="2" customFormat="1">
-      <c r="A14" s="28" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1">
+      <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
